--- a/UnifyNetSDK/haikang/Exception/手动处理审查错误代码.xlsx
+++ b/UnifyNetSDK/haikang/Exception/手动处理审查错误代码.xlsx
@@ -8274,8 +8274,8 @@
   <sheetPr/>
   <dimension ref="A1:E1215"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -29250,8 +29250,8 @@
   <sheetPr/>
   <dimension ref="A1:F1213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1171" workbookViewId="0">
-      <selection activeCell="C1187" sqref="C1187"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
